--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>新建退款单</t>
-  </si>
-  <si>
-    <t>Businese.BillPayReturnDAL.Create</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>创建不了，报BillPayReturn不是草稿状态，不能保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -83,25 +77,81 @@
     <t>查询我收到的订单列表</t>
   </si>
   <si>
-    <t>Businese.OrderDAL.QueryReceivedList</t>
-  </si>
-  <si>
     <t>报错</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>设时间不设都出错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查询我收到的注销单列表</t>
-  </si>
-  <si>
-    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
   </si>
   <si>
     <t>报错
 无注销原因字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillPayReturnDAL.Create</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建退款单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.OrderDAL.QueryReceivedList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询显示变更的接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：Businese.OrderDAL.GetChangedListCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我录入的退款单列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillPayReturnDAL.QueryMyList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填了时间就报错了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用啥状态呢?(State)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是显示到底部的小圆点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设时间还是要报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取列表接口StartDate、EndDate参数都有问题</t>
+  </si>
+  <si>
+    <t>我的帐户余额没有接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +211,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,15 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,6 +255,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,60 +583,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D4" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>创建不了，报BillPayReturn不是草稿状态，不能保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -121,37 +121,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>设时间还是要报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的帐户余额没有接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是显示到底部的小圆点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>用啥状态呢?(State)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>就是显示到底部的小圆点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设时间还是要报错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
-  </si>
-  <si>
-    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取列表接口StartDate、EndDate参数都有问题</t>
-  </si>
-  <si>
-    <t>我的帐户余额没有接口</t>
+    <t>我的下属账户余额和下属奖金列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取列表的接口StartDate、EndDate参数都有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有操作呢（如再显示货款收支明细，最开始的图上有）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,6 +286,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,21 +595,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="49.75" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -611,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="18">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -625,10 +637,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -636,53 +648,61 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="27">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="18">
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="18">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" ht="18">
+      <c r="A8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>创建不了，报BillPayReturn不是草稿状态，不能保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -97,70 +97,146 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>查询显示变更的接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：Businese.OrderDAL.GetChangedListCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我录入的退款单列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填了时间就报错了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设时间还是要报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+  </si>
+  <si>
+    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的帐户余额没有接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是显示到底部的小圆点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用啥状态呢?(State)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的下属账户余额和下属奖金列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取列表的接口StartDate、EndDate参数都有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有操作呢（如再显示货款收支明细，最开始的图上有）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.BillPayReturnDAL.QueryMyList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Businese.OrderDAL.QueryReceivedList</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>查询显示变更的接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如：Businese.OrderDAL.GetChangedListCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询我录入的退款单列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Businese.BillPayReturnDAL.QueryMyList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>填了时间就报错了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>设时间还是要报错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
-  </si>
-  <si>
-    <t>从“System.DateTime”到“System.Nullable`1[[System.DateTime, mscorlib, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089]]”的强制转换无效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Businese.BillLeaveDAL.QueryReceivedList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的帐户余额没有接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是显示到底部的小圆点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用啥状态呢?(State)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的下属账户余额和下属奖金列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取列表的接口StartDate、EndDate参数都有问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有没有操作呢（如再显示货款收支明细，最开始的图上有）</t>
+    <t>查询条件
+没有经销商编号或姓名（可以模糊查询），只有年月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.QueryAppDAL.QuerySubBonus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页广告图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没有接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成默认订单、创建订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.OrderDAL.CreateDefault
+Businese.OrderDAL.Create</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items订单明细对应购物车Businese.CartDAL.GetUserCart接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId =》RecordId ？还是
+ProductId  =》RecordId ？
+Price =&gt; Price还是FactPrice？
+Amount应该等于Price还是FactPrice？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items订单明细对应商品详情Basic.ProductDAL.GetById接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格显示Price还是FactPrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordId =》Id ？还是
+CartItemId =》Id ？
+ChangeType设什么值呢？
+购物车进入结算，图片没有</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要一个计量单位列表接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">商品详情 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商品详情可以进行选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic.ProductDAL.GetById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic.ProductDAL.GetById</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,11 +330,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,21 +348,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,114 +670,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="18">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="18">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="18">
-      <c r="A7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>创建不了，报BillPayReturn不是草稿状态，不能保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -220,23 +220,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">商品详情 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在商品详情可以进行选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic.ProductDAL.GetById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic.ProductDAL.GetById</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.CartDAL.GetUserCart</t>
+  </si>
+  <si>
+    <t>没有返回图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车列表要显示产品图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情直接结算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成默认订单时，现在是传购物车项ID，但商品详情没有购物车ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.OrderDAL.Create</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>需要一个计量单位列表接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">商品详情 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在商品详情可以进行选择</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic.ProductDAL.GetById</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic.ProductDAL.GetById</t>
+    <t>生成默认订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.OrderDAL.CreateDefault
+Businese.OrderDAL.Create</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Businese.OrderDAL.CreateDefault</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items缺少RecordId字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORA-00904: "FPRODUCTID": 标识符无效↵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -363,8 +425,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,21 +742,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -698,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -715,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -732,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="27">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -746,14 +818,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A5" s="8"/>
       <c r="B5" s="4"/>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -767,12 +839,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -780,76 +852,130 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" s="13" customFormat="1" ht="27">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="18">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="68.45" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="67.5">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="5" customFormat="1" ht="18">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -360,7 +360,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,12 +370,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,14 +386,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -408,9 +396,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -425,18 +410,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +720,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -756,225 +731,225 @@
     <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="27">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="27">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="13" customFormat="1" ht="27">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="27">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="68.45" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="68.45" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="67.5">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="67.5">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="18">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="18">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="27">
+      <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="18">
+      <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="1" t="s">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="18">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/问题列表.xlsx
+++ b/问题列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>创建不了，报BillPayReturn不是草稿状态，不能保存</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,12 +295,20 @@
     <t>ORA-00904: "FPRODUCTID": 标识符无效↵</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>新增经销商加盟单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步时缓存已填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,6 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -717,21 +729,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="52.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -745,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -762,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -779,7 +791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="27">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -793,14 +805,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -814,12 +826,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -827,7 +839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="27">
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -838,7 +850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -846,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="68.45" customHeight="1">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -860,7 +872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="67.5">
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -874,7 +886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -885,7 +897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -899,7 +911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="18">
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -913,7 +925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="27">
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -927,7 +939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="18">
+    <row r="17" spans="1:4" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -939,7 +951,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="18">
+    <row r="18" spans="1:4" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -951,6 +963,14 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
